--- a/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
+++ b/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4184A16-F53B-4D2F-8F61-C46396E44673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA46DDF6-D457-4DC3-ADCB-742B35074143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PagoCuotaPrestamo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>usuario</t>
   </si>
@@ -33,9 +33,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>SCISNEROSCSUP1</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -58,6 +55,15 @@
   </si>
   <si>
     <t>cuenta prestamo senior</t>
+  </si>
+  <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>SCISNEROSS1</t>
+  </si>
+  <si>
+    <t>SCISNEROSC1</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,11 +407,12 @@
     <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -413,33 +420,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
+++ b/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA46DDF6-D457-4DC3-ADCB-742B35074143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F3EBB-07C6-44B7-A4A4-6E55806173ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -63,13 +63,29 @@
     <t>SCISNEROSS1</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>25 may. 2023, 15:32:00</t>
+  </si>
+  <si>
+    <t>ebenito</t>
+  </si>
+  <si>
+    <t>25 may. 2023, 15:33:26</t>
+  </si>
+  <si>
+    <t>TT231455KQ6B 15:3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,17 +415,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.6328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -440,7 +456,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -453,6 +469,15 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
+++ b/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F3EBB-07C6-44B7-A4A4-6E55806173ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4A660-3A09-46AB-A082-7BBE4FE8CFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>monto</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>1005707435</t>
   </si>
   <si>
@@ -64,12 +58,6 @@
   </si>
   <si>
     <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>25 may. 2023, 15:32:00</t>
   </si>
   <si>
     <t>ebenito</t>
@@ -85,7 +73,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,23 +399,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.6328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -436,48 +423,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
+++ b/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4A660-3A09-46AB-A082-7BBE4FE8CFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F6AA72-D93E-4A15-B19A-197951A338A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>usuario</t>
   </si>
@@ -48,15 +48,6 @@
     <t>1005707435</t>
   </si>
   <si>
-    <t>cuenta prestamo senior</t>
-  </si>
-  <si>
-    <t>usuarioAp</t>
-  </si>
-  <si>
-    <t>SCISNEROSS1</t>
-  </si>
-  <si>
     <t>FAILED</t>
   </si>
   <si>
@@ -67,6 +58,9 @@
   </si>
   <si>
     <t>TT231455KQ6B 15:3</t>
+  </si>
+  <si>
+    <t>cuenta prestamo</t>
   </si>
 </sst>
 </file>
@@ -399,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -410,12 +404,11 @@
     <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -423,24 +416,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -448,17 +438,14 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
+++ b/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F6AA72-D93E-4A15-B19A-197951A338A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626FB630-24E3-4A13-B89C-4D41E01F3A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,28 +45,29 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>1005707435</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>ebenito</t>
   </si>
   <si>
-    <t>25 may. 2023, 15:33:26</t>
-  </si>
-  <si>
-    <t>TT231455KQ6B 15:3</t>
-  </si>
-  <si>
     <t>cuenta prestamo</t>
+  </si>
+  <si>
+    <t>AA221452PDFN</t>
+  </si>
+  <si>
+    <t>TT23200FW369 12:0</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>19 jul. 2023, 12:08:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,16 +397,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -416,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -430,22 +431,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
+++ b/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>19 jul. 2023, 12:08:30</t>
+  </si>
+  <si>
+    <t>TT23216CRNMX 15:2</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 15:23:01</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
+++ b/src/Excel/entregable3/PagoCuotaPrestamo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>4 ago. 2023, 15:23:01</t>
+  </si>
+  <si>
+    <t>TT232232ZL4F 17:5</t>
+  </si>
+  <si>
+    <t>11 ago. 2023, 17:55:07</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
